--- a/ExperimentDataset/비교분석.xlsx
+++ b/ExperimentDataset/비교분석.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tls15\바탕 화면\ComparativeExperiment\autolabel_getpoints\ExperimentDataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autolabel-test\autolabel_getpoints\ExperimentDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A842C-E35B-4D8A-87F2-10F766226497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E0373-D3D2-47D8-9596-2F0372EE7DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73DBC57D-E1D2-47E0-9502-4CD9A589DE21}"/>
+    <workbookView xWindow="32715" yWindow="4365" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{73DBC57D-E1D2-47E0-9502-4CD9A589DE21}"/>
   </bookViews>
   <sheets>
     <sheet name="crack" sheetId="1" r:id="rId1"/>
@@ -426,12 +426,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -463,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +791,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4A9B6E-86B8-4506-973A-238E4AEA1873}">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H5" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,25 +851,40 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>45.517000000000003</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>16.722999999999999</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>16.437999999999999</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10">
+        <v>18.254999999999999</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
+      </c>
+      <c r="C11">
+        <v>19.376999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -981,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4C9847-8619-456D-9574-9DB26B681E0F}">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1077,72 +1101,87 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>26.437999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>12.414999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>7.0519999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>12.724</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>4.0759999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>58</v>
       </c>
@@ -1160,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0BC1A2-258A-49AF-B8F7-F2E19DD58138}">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1232,28 +1271,43 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>68</v>
+      </c>
+      <c r="C12">
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>69</v>
       </c>
+      <c r="C13">
+        <v>12.711</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>70</v>
       </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>71</v>
       </c>
+      <c r="C15">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>72</v>
+      </c>
+      <c r="C16">
+        <v>14.263999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1339,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF65D21-9249-4112-8A62-5741EF984CC0}">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1376,28 +1430,44 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>89</v>
+      </c>
+      <c r="C5">
+        <v>18.501000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>90</v>
       </c>
+      <c r="C6">
+        <f>25.279-18.501</f>
+        <v>6.7779999999999987</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>91</v>
       </c>
+      <c r="C7">
+        <v>13.430999999999999</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>92</v>
       </c>
+      <c r="C8">
+        <v>9.4450000000000003</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>93</v>
+      </c>
+      <c r="C9">
+        <v>12.624000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
